--- a/Data/EC/NIT-9000091416.xlsx
+++ b/Data/EC/NIT-9000091416.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84B58D48-E417-4F22-867F-68C31296022E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D93B80D-5442-4536-BF7C-F5DB6F585448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAD1B680-E293-4430-A457-5E19D35C7E16}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4C277F31-27B4-4530-AD80-CDD1A030248F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,21 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1048995067</t>
+  </si>
+  <si>
+    <t>TANIA LOREINIS CAMARGO ZAYAS</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
     <t>45520356</t>
   </si>
   <si>
@@ -74,136 +89,121 @@
     <t>1807</t>
   </si>
   <si>
-    <t>1048995067</t>
-  </si>
-  <si>
-    <t>TANIA LOREINIS CAMARGO ZAYAS</t>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>23151139</t>
+  </si>
+  <si>
+    <t>NORMA JUDITH ARAUJO PEREZ</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
   </si>
   <si>
     <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>23151139</t>
-  </si>
-  <si>
-    <t>NORMA JUDITH ARAUJO PEREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -302,7 +302,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -315,9 +317,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -517,23 +517,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,10 +561,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,7 +617,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80481E84-1EDD-8D4F-221D-FBFAA223F01B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2681884-621C-8E9A-C3F7-084267B96101}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC42B90C-339B-475C-8EE2-EBB029D7B2F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2CAF3F-C586-470C-81EF-62231878BED1}">
   <dimension ref="B2:J89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1146,10 +1146,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1042</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1160,16 +1160,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>30208</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1183,13 +1183,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>31249</v>
@@ -1206,19 +1206,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>1042</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1229,13 +1229,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1252,13 +1252,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1275,13 +1275,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1298,13 +1298,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1321,13 +1321,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1344,13 +1344,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1367,13 +1367,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1390,13 +1390,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1413,13 +1413,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1436,13 +1436,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1459,13 +1459,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1482,13 +1482,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1505,13 +1505,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1528,19 +1528,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1551,10 +1551,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>31</v>
@@ -1574,19 +1574,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1597,13 +1597,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1620,19 +1620,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1643,13 +1643,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1666,19 +1666,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1689,13 +1689,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1712,19 +1712,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1735,13 +1735,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1758,19 +1758,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1781,13 +1781,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1804,19 +1804,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1827,13 +1827,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1850,19 +1850,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1873,13 +1873,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -1896,19 +1896,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G49" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1919,13 +1919,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1942,19 +1942,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1965,13 +1965,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -1988,19 +1988,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2011,13 +2011,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2034,19 +2034,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G55" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2057,13 +2057,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2080,19 +2080,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G57" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2103,19 +2103,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F58" s="18">
-        <v>32021</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2126,13 +2126,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F59" s="18">
         <v>33125</v>
@@ -2149,19 +2149,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F60" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2172,13 +2172,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F61" s="18">
         <v>33125</v>
@@ -2195,19 +2195,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F62" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2218,13 +2218,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F63" s="18">
         <v>33125</v>
@@ -2241,19 +2241,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F64" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2264,13 +2264,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F65" s="18">
         <v>33125</v>
@@ -2287,19 +2287,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F66" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2310,13 +2310,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F67" s="18">
         <v>33125</v>
@@ -2333,19 +2333,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F68" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2356,13 +2356,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F69" s="18">
         <v>33125</v>
@@ -2379,19 +2379,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F70" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2402,13 +2402,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F71" s="18">
         <v>33125</v>
@@ -2425,19 +2425,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F72" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2448,13 +2448,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F73" s="18">
         <v>33125</v>
@@ -2471,19 +2471,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F74" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2494,13 +2494,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F75" s="18">
         <v>33125</v>
@@ -2517,19 +2517,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F76" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2540,13 +2540,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F77" s="18">
         <v>33125</v>
@@ -2563,19 +2563,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F78" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2586,13 +2586,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F79" s="18">
         <v>33125</v>
@@ -2609,19 +2609,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F80" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2632,13 +2632,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F81" s="18">
         <v>33125</v>
@@ -2655,19 +2655,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F82" s="18">
-        <v>33125</v>
+        <v>30208</v>
       </c>
       <c r="G82" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2678,16 +2678,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D83" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E83" s="22" t="s">
-        <v>39</v>
-      </c>
       <c r="F83" s="24">
-        <v>33125</v>
+        <v>32021</v>
       </c>
       <c r="G83" s="24">
         <v>828116</v>
